--- a/xlsfiles/Soerfjorden/S22_CTD.xlsx
+++ b/xlsfiles/Soerfjorden/S22_CTD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Rådata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rådata" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K703"/>
+  <dimension ref="A1:K898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +595,7 @@
         <v>24.07297240751971</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127551394784717</v>
+        <v>5.127551394784718</v>
       </c>
       <c r="I4" t="n">
         <v>7.77101508489994</v>
@@ -568,7 +636,7 @@
         <v>28.18152304426926</v>
       </c>
       <c r="H5" t="n">
-        <v>5.826459824135839</v>
+        <v>5.82645982413584</v>
       </c>
       <c r="I5" t="n">
         <v>7.585296467556094</v>
@@ -609,7 +677,7 @@
         <v>29.52095960861524</v>
       </c>
       <c r="H6" t="n">
-        <v>6.055445737127856</v>
+        <v>6.055445737127857</v>
       </c>
       <c r="I6" t="n">
         <v>7.48744824294493</v>
@@ -729,7 +797,7 @@
         <v>7.5</v>
       </c>
       <c r="G9" t="n">
-        <v>30.77774471736566</v>
+        <v>30.77774471736565</v>
       </c>
       <c r="H9" t="n">
         <v>6.157755604419179</v>
@@ -770,7 +838,7 @@
         <v>8.5</v>
       </c>
       <c r="G10" t="n">
-        <v>30.93863713396976</v>
+        <v>30.93863713396975</v>
       </c>
       <c r="H10" t="n">
         <v>6.16472760913869</v>
@@ -1060,7 +1128,7 @@
         <v>32.08350816454002</v>
       </c>
       <c r="H17" t="n">
-        <v>6.607998750780762</v>
+        <v>6.607998750780761</v>
       </c>
       <c r="I17" t="n">
         <v>6.261636477201749</v>
@@ -1262,7 +1330,7 @@
         <v>20.5</v>
       </c>
       <c r="G22" t="n">
-        <v>32.4035057312764</v>
+        <v>32.40350573127639</v>
       </c>
       <c r="H22" t="n">
         <v>6.747642764802206</v>
@@ -1303,10 +1371,10 @@
         <v>21.5</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45170680372002</v>
+        <v>32.45170680372001</v>
       </c>
       <c r="H23" t="n">
-        <v>6.777947332354381</v>
+        <v>6.777947332354382</v>
       </c>
       <c r="I23" t="n">
         <v>6.000441801272638</v>
@@ -1344,10 +1412,10 @@
         <v>22.5</v>
       </c>
       <c r="G24" t="n">
-        <v>32.54225991189428</v>
+        <v>32.54225991189427</v>
       </c>
       <c r="H24" t="n">
-        <v>6.789205286343612</v>
+        <v>6.789205286343613</v>
       </c>
       <c r="I24" t="n">
         <v>5.952473127753303</v>
@@ -1388,7 +1456,7 @@
         <v>32.63938473933157</v>
       </c>
       <c r="H25" t="n">
-        <v>6.8229062841104</v>
+        <v>6.822906284110401</v>
       </c>
       <c r="I25" t="n">
         <v>5.886340714174333</v>
@@ -2331,7 +2399,7 @@
         <v>27.93525978787482</v>
       </c>
       <c r="H48" t="n">
-        <v>8.35832021736284</v>
+        <v>8.358320217362838</v>
       </c>
       <c r="I48" t="n">
         <v>8.889117781851512</v>
@@ -2372,7 +2440,7 @@
         <v>29.24860272358256</v>
       </c>
       <c r="H49" t="n">
-        <v>8.432302147440096</v>
+        <v>8.432302147440094</v>
       </c>
       <c r="I49" t="n">
         <v>8.857037121906508</v>
@@ -2410,7 +2478,7 @@
         <v>9.5</v>
       </c>
       <c r="G50" t="n">
-        <v>29.78735766908387</v>
+        <v>29.81746778365006</v>
       </c>
       <c r="H50" t="n">
         <v>8.351056632252611</v>
@@ -2451,7 +2519,7 @@
         <v>10.5</v>
       </c>
       <c r="G51" t="n">
-        <v>30.27359116516915</v>
+        <v>30.33585303047341</v>
       </c>
       <c r="H51" t="n">
         <v>8.268105087150385</v>
@@ -2492,7 +2560,7 @@
         <v>11.5</v>
       </c>
       <c r="G52" t="n">
-        <v>30.75982466125444</v>
+        <v>30.85423827729675</v>
       </c>
       <c r="H52" t="n">
         <v>8.207809181191731</v>
@@ -2533,7 +2601,7 @@
         <v>12.5</v>
       </c>
       <c r="G53" t="n">
-        <v>31.24605815733972</v>
+        <v>31.37262352412009</v>
       </c>
       <c r="H53" t="n">
         <v>8.132210915059499</v>
@@ -2574,7 +2642,7 @@
         <v>13.5</v>
       </c>
       <c r="G54" t="n">
-        <v>31.73229165342502</v>
+        <v>31.89100877094344</v>
       </c>
       <c r="H54" t="n">
         <v>8.022005158567325</v>
@@ -2615,7 +2683,7 @@
         <v>14.5</v>
       </c>
       <c r="G55" t="n">
-        <v>32.2185251495103</v>
+        <v>32.32513637509453</v>
       </c>
       <c r="H55" t="n">
         <v>8.011313335013865</v>
@@ -2659,7 +2727,7 @@
         <v>32.7007947711629</v>
       </c>
       <c r="H56" t="n">
-        <v>8.065890894819466</v>
+        <v>8.065890894819468</v>
       </c>
       <c r="I56" t="n">
         <v>6.45058203074178</v>
@@ -2741,7 +2809,7 @@
         <v>33.08885715786157</v>
       </c>
       <c r="H58" t="n">
-        <v>8.093199453838881</v>
+        <v>8.093199453838883</v>
       </c>
       <c r="I58" t="n">
         <v>5.539852145791127</v>
@@ -2782,7 +2850,7 @@
         <v>33.25060487343766</v>
       </c>
       <c r="H59" t="n">
-        <v>8.205582606869028</v>
+        <v>8.205582606869026</v>
       </c>
       <c r="I59" t="n">
         <v>5.0844872033158</v>
@@ -2823,7 +2891,7 @@
         <v>33.43561409586845</v>
       </c>
       <c r="H60" t="n">
-        <v>8.364083096333834</v>
+        <v>8.364083096333832</v>
       </c>
       <c r="I60" t="n">
         <v>4.629122260840473</v>
@@ -2864,7 +2932,7 @@
         <v>33.64865510109106</v>
       </c>
       <c r="H61" t="n">
-        <v>8.578158281193444</v>
+        <v>8.578158281193442</v>
       </c>
       <c r="I61" t="n">
         <v>4.173757318365147</v>
@@ -2905,7 +2973,7 @@
         <v>33.79760213341824</v>
       </c>
       <c r="H62" t="n">
-        <v>8.744423021811814</v>
+        <v>8.744423021811812</v>
       </c>
       <c r="I62" t="n">
         <v>3.912534150612959</v>
@@ -3107,16 +3175,16 @@
         <v>26.5</v>
       </c>
       <c r="G67" t="n">
-        <v>34.16346485018908</v>
+        <v>34.15429430193851</v>
       </c>
       <c r="H67" t="n">
-        <v>8.553506932997188</v>
+        <v>8.595979831603682</v>
       </c>
       <c r="I67" t="n">
-        <v>3.597934160767962</v>
+        <v>3.598137066771098</v>
       </c>
       <c r="J67" t="n">
-        <v>55.33314360515854</v>
+        <v>55.38411396122969</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3233,7 +3301,7 @@
         <v>34.27077743919331</v>
       </c>
       <c r="H70" t="n">
-        <v>8.497805252368551</v>
+        <v>8.497805252368552</v>
       </c>
       <c r="I70" t="n">
         <v>3.580970635492271</v>
@@ -3274,7 +3342,7 @@
         <v>34.3016979056484</v>
       </c>
       <c r="H71" t="n">
-        <v>8.479691347577743</v>
+        <v>8.479691347577745</v>
       </c>
       <c r="I71" t="n">
         <v>3.585550454833932</v>
@@ -3315,7 +3383,7 @@
         <v>34.32849432339045</v>
       </c>
       <c r="H72" t="n">
-        <v>8.455715605387489</v>
+        <v>8.455715605387491</v>
       </c>
       <c r="I72" t="n">
         <v>3.546060997108807</v>
@@ -3438,7 +3506,7 @@
         <v>34.40019644092931</v>
       </c>
       <c r="H75" t="n">
-        <v>8.418640434997529</v>
+        <v>8.418640434997528</v>
       </c>
       <c r="I75" t="n">
         <v>3.575942560553633</v>
@@ -3479,7 +3547,7 @@
         <v>34.41848610973801</v>
       </c>
       <c r="H76" t="n">
-        <v>8.405293919920911</v>
+        <v>8.40529391992091</v>
       </c>
       <c r="I76" t="n">
         <v>3.565561937716263</v>
@@ -3561,7 +3629,7 @@
         <v>34.45818758566673</v>
       </c>
       <c r="H78" t="n">
-        <v>8.355655374975523</v>
+        <v>8.355655374975525</v>
       </c>
       <c r="I78" t="n">
         <v>3.496915997650284</v>
@@ -3684,13 +3752,13 @@
         <v>-999</v>
       </c>
       <c r="H81" t="n">
-        <v>-999</v>
+        <v>9.514731424087877</v>
       </c>
       <c r="I81" t="n">
-        <v>-999</v>
+        <v>8.467807453903491</v>
       </c>
       <c r="J81" t="n">
-        <v>-999</v>
+        <v>113.4122228324833</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3725,13 +3793,13 @@
         <v>-999</v>
       </c>
       <c r="H82" t="n">
-        <v>-999</v>
+        <v>9.621832247940368</v>
       </c>
       <c r="I82" t="n">
-        <v>-999</v>
+        <v>8.912687799136917</v>
       </c>
       <c r="J82" t="n">
-        <v>-999</v>
+        <v>120.501277363672</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3927,7 +3995,7 @@
         <v>7.5</v>
       </c>
       <c r="G87" t="n">
-        <v>28.6383660955816</v>
+        <v>28.63836609558161</v>
       </c>
       <c r="H87" t="n">
         <v>9.55867669481105</v>
@@ -4627,7 +4695,7 @@
         <v>32.99880400872536</v>
       </c>
       <c r="H104" t="n">
-        <v>8.077956825945591</v>
+        <v>8.07795682594559</v>
       </c>
       <c r="I104" t="n">
         <v>4.168123307404206</v>
@@ -4668,7 +4736,7 @@
         <v>33.10476069529998</v>
       </c>
       <c r="H105" t="n">
-        <v>8.10584068854949</v>
+        <v>8.105840688549488</v>
       </c>
       <c r="I105" t="n">
         <v>3.959405788541051</v>
@@ -4709,7 +4777,7 @@
         <v>33.18914176018902</v>
       </c>
       <c r="H106" t="n">
-        <v>8.140858830478441</v>
+        <v>8.14085883047844</v>
       </c>
       <c r="I106" t="n">
         <v>3.788112226816302</v>
@@ -4993,7 +5061,7 @@
         <v>33.5</v>
       </c>
       <c r="G113" t="n">
-        <v>33.69944184100419</v>
+        <v>33.69944184100418</v>
       </c>
       <c r="H113" t="n">
         <v>8.342266945606694</v>
@@ -5731,7 +5799,7 @@
         <v>12.5</v>
       </c>
       <c r="G131" t="n">
-        <v>30.59890444942381</v>
+        <v>30.59890444942382</v>
       </c>
       <c r="H131" t="n">
         <v>9.313854353393085</v>
@@ -5813,7 +5881,7 @@
         <v>14.5</v>
       </c>
       <c r="G133" t="n">
-        <v>31.16057377235957</v>
+        <v>31.16057377235958</v>
       </c>
       <c r="H133" t="n">
         <v>9.090196194599521</v>
@@ -5977,7 +6045,7 @@
         <v>18.5</v>
       </c>
       <c r="G137" t="n">
-        <v>31.87008032938408</v>
+        <v>31.87008032938409</v>
       </c>
       <c r="H137" t="n">
         <v>8.777664734055962</v>
@@ -6021,7 +6089,7 @@
         <v>32.02141713346777</v>
       </c>
       <c r="H138" t="n">
-        <v>8.851125849578013</v>
+        <v>8.851125849578011</v>
       </c>
       <c r="I138" t="n">
         <v>6.102192620808126</v>
@@ -6062,7 +6130,7 @@
         <v>32.05353304951826</v>
       </c>
       <c r="H139" t="n">
-        <v>8.842910150123236</v>
+        <v>8.842910150123235</v>
       </c>
       <c r="I139" t="n">
         <v>5.887837553215326</v>
@@ -6103,7 +6171,7 @@
         <v>32.12796345562469</v>
       </c>
       <c r="H140" t="n">
-        <v>8.867895158406638</v>
+        <v>8.867895158406636</v>
       </c>
       <c r="I140" t="n">
         <v>5.684313380533506</v>
@@ -6510,7 +6578,7 @@
         <v>31.5</v>
       </c>
       <c r="G150" t="n">
-        <v>33.12457303921569</v>
+        <v>33.12457303921568</v>
       </c>
       <c r="H150" t="n">
         <v>8.11813088235294</v>
@@ -6592,7 +6660,7 @@
         <v>33.5</v>
       </c>
       <c r="G152" t="n">
-        <v>33.30180356696392</v>
+        <v>33.30180356696391</v>
       </c>
       <c r="H152" t="n">
         <v>8.16933877823152</v>
@@ -6633,7 +6701,7 @@
         <v>34.5</v>
       </c>
       <c r="G153" t="n">
-        <v>33.43211517548196</v>
+        <v>33.43211517548195</v>
       </c>
       <c r="H153" t="n">
         <v>8.183737024221452</v>
@@ -6800,7 +6868,7 @@
         <v>33.75413308636894</v>
       </c>
       <c r="H157" t="n">
-        <v>8.348321122315978</v>
+        <v>8.348321122315976</v>
       </c>
       <c r="I157" t="n">
         <v>3.33117308088084</v>
@@ -6879,7 +6947,7 @@
         <v>1.5</v>
       </c>
       <c r="G159" t="n">
-        <v>12.04261496310368</v>
+        <v>12.04261496310367</v>
       </c>
       <c r="H159" t="n">
         <v>11.78724972601739</v>
@@ -7043,7 +7111,7 @@
         <v>5.5</v>
       </c>
       <c r="G163" t="n">
-        <v>25.56820946926923</v>
+        <v>25.56820946926924</v>
       </c>
       <c r="H163" t="n">
         <v>12.82438054524923</v>
@@ -7333,7 +7401,7 @@
         <v>29.77883248477588</v>
       </c>
       <c r="H170" t="n">
-        <v>11.98571403613857</v>
+        <v>11.98571403613856</v>
       </c>
       <c r="I170" t="n">
         <v>6.374962613556953</v>
@@ -7412,7 +7480,7 @@
         <v>14.5</v>
       </c>
       <c r="G172" t="n">
-        <v>29.87962077304586</v>
+        <v>29.87962077304587</v>
       </c>
       <c r="H172" t="n">
         <v>11.56985412140837</v>
@@ -7453,7 +7521,7 @@
         <v>15.5</v>
       </c>
       <c r="G173" t="n">
-        <v>29.97020568102636</v>
+        <v>29.97020568102635</v>
       </c>
       <c r="H173" t="n">
         <v>11.41122806082715</v>
@@ -7494,7 +7562,7 @@
         <v>16.5</v>
       </c>
       <c r="G174" t="n">
-        <v>30.06576664972039</v>
+        <v>30.06576664972038</v>
       </c>
       <c r="H174" t="n">
         <v>11.26913760379597</v>
@@ -7535,7 +7603,7 @@
         <v>17.5</v>
       </c>
       <c r="G175" t="n">
-        <v>30.1915927808846</v>
+        <v>30.19159278088459</v>
       </c>
       <c r="H175" t="n">
         <v>11.22761921708185</v>
@@ -8478,16 +8546,16 @@
         <v>1.5</v>
       </c>
       <c r="G198" t="n">
-        <v>-999</v>
+        <v>17.56655399686178</v>
       </c>
       <c r="H198" t="n">
-        <v>-999</v>
+        <v>8.925563218749076</v>
       </c>
       <c r="I198" t="n">
-        <v>-999</v>
+        <v>7.515495308953088</v>
       </c>
       <c r="J198" t="n">
-        <v>-999</v>
+        <v>104.6430774911789</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8519,7 +8587,7 @@
         <v>2.5</v>
       </c>
       <c r="G199" t="n">
-        <v>21.66200244109804</v>
+        <v>21.66200244109805</v>
       </c>
       <c r="H199" t="n">
         <v>9.917624633131668</v>
@@ -8607,10 +8675,10 @@
         <v>11.1288298045246</v>
       </c>
       <c r="I201" t="n">
-        <v>6.275009884691342</v>
+        <v>6.27500988469134</v>
       </c>
       <c r="J201" t="n">
-        <v>96.46255801669155</v>
+        <v>96.46255801669153</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8642,7 +8710,7 @@
         <v>5.5</v>
       </c>
       <c r="G202" t="n">
-        <v>26.19073702772281</v>
+        <v>26.19073702772282</v>
       </c>
       <c r="H202" t="n">
         <v>11.5197519597009</v>
@@ -9216,7 +9284,7 @@
         <v>19.5</v>
       </c>
       <c r="G216" t="n">
-        <v>31.25203346871277</v>
+        <v>31.25203346871278</v>
       </c>
       <c r="H216" t="n">
         <v>10.72761706528163</v>
@@ -9301,7 +9369,7 @@
         <v>31.32015497547756</v>
       </c>
       <c r="H218" t="n">
-        <v>10.51580642437479</v>
+        <v>10.5158064243748</v>
       </c>
       <c r="I218" t="n">
         <v>5.206643360940046</v>
@@ -9427,7 +9495,7 @@
         <v>10.13778046096586</v>
       </c>
       <c r="I221" t="n">
-        <v>5.335691556732208</v>
+        <v>5.335691556732207</v>
       </c>
       <c r="J221" t="n">
         <v>83.47093071440558</v>
@@ -9462,10 +9530,10 @@
         <v>25.5</v>
       </c>
       <c r="G222" t="n">
-        <v>31.49495439515683</v>
+        <v>31.49495439515684</v>
       </c>
       <c r="H222" t="n">
-        <v>9.972006113924099</v>
+        <v>9.972006113924101</v>
       </c>
       <c r="I222" t="n">
         <v>5.420831099098764</v>
@@ -9547,7 +9615,7 @@
         <v>31.61304078208505</v>
       </c>
       <c r="H224" t="n">
-        <v>9.68504163639389</v>
+        <v>9.685041636393892</v>
       </c>
       <c r="I224" t="n">
         <v>5.471626285311427</v>
@@ -9588,7 +9656,7 @@
         <v>31.67678672118203</v>
       </c>
       <c r="H225" t="n">
-        <v>9.539571464421703</v>
+        <v>9.539571464421705</v>
       </c>
       <c r="I225" t="n">
         <v>5.462249295172581</v>
@@ -9629,7 +9697,7 @@
         <v>31.74792150990925</v>
       </c>
       <c r="H226" t="n">
-        <v>9.38440870651044</v>
+        <v>9.384408706510442</v>
       </c>
       <c r="I226" t="n">
         <v>5.412454943063522</v>
@@ -9670,7 +9738,7 @@
         <v>31.81914646167278</v>
       </c>
       <c r="H227" t="n">
-        <v>9.235925610001484</v>
+        <v>9.235925610001486</v>
       </c>
       <c r="I227" t="n">
         <v>5.367036035837133</v>
@@ -9752,7 +9820,7 @@
         <v>31.96283245190154</v>
       </c>
       <c r="H229" t="n">
-        <v>9.030533979797189</v>
+        <v>9.030533979797188</v>
       </c>
       <c r="I229" t="n">
         <v>5.336183215849363</v>
@@ -10244,7 +10312,7 @@
         <v>-999</v>
       </c>
       <c r="H241" t="n">
-        <v>7.690301086601962</v>
+        <v>7.690301086601961</v>
       </c>
       <c r="I241" t="n">
         <v>-999</v>
@@ -10285,7 +10353,7 @@
         <v>-999</v>
       </c>
       <c r="H242" t="n">
-        <v>8.094984286357459</v>
+        <v>8.094984286357457</v>
       </c>
       <c r="I242" t="n">
         <v>5.652913967860182</v>
@@ -10364,7 +10432,7 @@
         <v>8.5</v>
       </c>
       <c r="G244" t="n">
-        <v>32.18105889387968</v>
+        <v>32.18105889387969</v>
       </c>
       <c r="H244" t="n">
         <v>8.608640819151473</v>
@@ -10449,7 +10517,7 @@
         <v>32.75504524766806</v>
       </c>
       <c r="H246" t="n">
-        <v>8.771335370335885</v>
+        <v>8.771335370335883</v>
       </c>
       <c r="I246" t="n">
         <v>4.631413643656693</v>
@@ -10490,7 +10558,7 @@
         <v>32.93120621879447</v>
       </c>
       <c r="H247" t="n">
-        <v>8.847568773045563</v>
+        <v>8.847568773045561</v>
       </c>
       <c r="I247" t="n">
         <v>4.602568572361139</v>
@@ -10531,7 +10599,7 @@
         <v>32.96150659740393</v>
       </c>
       <c r="H248" t="n">
-        <v>8.831054877918007</v>
+        <v>8.831054877918005</v>
       </c>
       <c r="I248" t="n">
         <v>4.610909236365505</v>
@@ -10701,7 +10769,7 @@
         <v>4.688601430834019</v>
       </c>
       <c r="J252" t="n">
-        <v>72.13802248453459</v>
+        <v>72.1380224845346</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10856,7 +10924,7 @@
         <v>20.5</v>
       </c>
       <c r="G256" t="n">
-        <v>33.25672673626423</v>
+        <v>33.25672673626422</v>
       </c>
       <c r="H256" t="n">
         <v>8.644573114598165</v>
@@ -10941,7 +11009,7 @@
         <v>33.2907036195251</v>
       </c>
       <c r="H258" t="n">
-        <v>8.533291209724764</v>
+        <v>8.533291209724766</v>
       </c>
       <c r="I258" t="n">
         <v>4.821037104379922</v>
@@ -11720,7 +11788,7 @@
         <v>-999</v>
       </c>
       <c r="H277" t="n">
-        <v>4.850117637021828</v>
+        <v>4.850117637021827</v>
       </c>
       <c r="I277" t="n">
         <v>9.023519173643358</v>
@@ -11761,7 +11829,7 @@
         <v>-999</v>
       </c>
       <c r="H278" t="n">
-        <v>4.976999486906201</v>
+        <v>4.9769994869062</v>
       </c>
       <c r="I278" t="n">
         <v>9.12392133311708</v>
@@ -11802,7 +11870,7 @@
         <v>-999</v>
       </c>
       <c r="H279" t="n">
-        <v>5.350260295882695</v>
+        <v>5.350260295882694</v>
       </c>
       <c r="I279" t="n">
         <v>9.093317866223554</v>
@@ -11925,7 +11993,7 @@
         <v>30.2809644032527</v>
       </c>
       <c r="H282" t="n">
-        <v>5.888958616841336</v>
+        <v>5.888958616841335</v>
       </c>
       <c r="I282" t="n">
         <v>9.519047894591017</v>
@@ -11966,7 +12034,7 @@
         <v>30.6046489702925</v>
       </c>
       <c r="H283" t="n">
-        <v>6.308328615299041</v>
+        <v>6.30832861529904</v>
       </c>
       <c r="I283" t="n">
         <v>8.788246649247636</v>
@@ -12048,7 +12116,7 @@
         <v>30.95524472391891</v>
       </c>
       <c r="H285" t="n">
-        <v>6.75344952216679</v>
+        <v>6.753449522166791</v>
       </c>
       <c r="I285" t="n">
         <v>7.653112078573007</v>
@@ -12089,10 +12157,10 @@
         <v>31.02535425520352</v>
       </c>
       <c r="H286" t="n">
-        <v>6.816748413269468</v>
+        <v>6.816748413269469</v>
       </c>
       <c r="I286" t="n">
-        <v>7.226846128362568</v>
+        <v>7.226846128362567</v>
       </c>
       <c r="J286" t="n">
         <v>108.9588255420898</v>
@@ -12171,7 +12239,7 @@
         <v>31.0909464758864</v>
       </c>
       <c r="H288" t="n">
-        <v>6.653420004450361</v>
+        <v>6.653420004450362</v>
       </c>
       <c r="I288" t="n">
         <v>6.845850539350983</v>
@@ -12382,7 +12450,7 @@
         <v>6.558092199310748</v>
       </c>
       <c r="J293" t="n">
-        <v>98.76585951560413</v>
+        <v>98.76585951560415</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -12414,13 +12482,13 @@
         <v>19.5</v>
       </c>
       <c r="G294" t="n">
-        <v>31.29131002603299</v>
+        <v>31.29131002603298</v>
       </c>
       <c r="H294" t="n">
         <v>6.740998839334437</v>
       </c>
       <c r="I294" t="n">
-        <v>6.526447548503953</v>
+        <v>6.526447548503955</v>
       </c>
       <c r="J294" t="n">
         <v>98.38913748218994</v>
@@ -12455,7 +12523,7 @@
         <v>20.5</v>
       </c>
       <c r="G295" t="n">
-        <v>31.32696964278864</v>
+        <v>31.32696964278863</v>
       </c>
       <c r="H295" t="n">
         <v>6.768864377711268</v>
@@ -12745,7 +12813,7 @@
         <v>31.59531891759381</v>
       </c>
       <c r="H302" t="n">
-        <v>7.003396332308097</v>
+        <v>7.003396332308098</v>
       </c>
       <c r="I302" t="n">
         <v>6.339572725674693</v>
@@ -12865,7 +12933,7 @@
         <v>30.5</v>
       </c>
       <c r="G305" t="n">
-        <v>31.8062827906018</v>
+        <v>31.80628279060181</v>
       </c>
       <c r="H305" t="n">
         <v>7.297078773670327</v>
@@ -12947,7 +13015,7 @@
         <v>32.5</v>
       </c>
       <c r="G307" t="n">
-        <v>31.91535637224503</v>
+        <v>31.91535637224504</v>
       </c>
       <c r="H307" t="n">
         <v>7.420761956968072</v>
@@ -12991,7 +13059,7 @@
         <v>31.96352465565987</v>
       </c>
       <c r="H308" t="n">
-        <v>7.471112098269849</v>
+        <v>7.471112098269848</v>
       </c>
       <c r="I308" t="n">
         <v>5.989532741038091</v>
@@ -13032,7 +13100,7 @@
         <v>32.05946858593847</v>
       </c>
       <c r="H309" t="n">
-        <v>7.583046683594882</v>
+        <v>7.583046683594881</v>
       </c>
       <c r="I309" t="n">
         <v>5.922371989843072</v>
@@ -13073,7 +13141,7 @@
         <v>32.15541251621707</v>
       </c>
       <c r="H310" t="n">
-        <v>7.694981268919915</v>
+        <v>7.694981268919914</v>
       </c>
       <c r="I310" t="n">
         <v>5.855211238648051</v>
@@ -13114,7 +13182,7 @@
         <v>32.24191987609336</v>
       </c>
       <c r="H311" t="n">
-        <v>7.825016948146706</v>
+        <v>7.825016948146705</v>
       </c>
       <c r="I311" t="n">
         <v>5.751770530990092</v>
@@ -13155,7 +13223,7 @@
         <v>32.32673522723967</v>
       </c>
       <c r="H312" t="n">
-        <v>7.958298214233774</v>
+        <v>7.958298214233773</v>
       </c>
       <c r="I312" t="n">
         <v>5.641824705430052</v>
@@ -13275,16 +13343,16 @@
         <v>1.5</v>
       </c>
       <c r="G315" t="n">
-        <v>-999</v>
+        <v>11.40013111153115</v>
       </c>
       <c r="H315" t="n">
-        <v>-999</v>
+        <v>7.606534566851693</v>
       </c>
       <c r="I315" t="n">
-        <v>-999</v>
+        <v>8.658061452585118</v>
       </c>
       <c r="J315" t="n">
-        <v>-999</v>
+        <v>113.3825698337237</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -13316,16 +13384,16 @@
         <v>2.5</v>
       </c>
       <c r="G316" t="n">
-        <v>-999</v>
+        <v>13.1278119948002</v>
       </c>
       <c r="H316" t="n">
-        <v>-999</v>
+        <v>7.335795729898507</v>
       </c>
       <c r="I316" t="n">
-        <v>-999</v>
+        <v>8.760850434750395</v>
       </c>
       <c r="J316" t="n">
-        <v>-999</v>
+        <v>115.2915080739359</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -13644,7 +13712,7 @@
         <v>10.5</v>
       </c>
       <c r="G324" t="n">
-        <v>27.38104876731689</v>
+        <v>27.3810487673169</v>
       </c>
       <c r="H324" t="n">
         <v>8.171021038030506</v>
@@ -13685,10 +13753,10 @@
         <v>11.5</v>
       </c>
       <c r="G325" t="n">
-        <v>28.1246588751753</v>
+        <v>28.12465887517531</v>
       </c>
       <c r="H325" t="n">
-        <v>7.990580212148297</v>
+        <v>7.990580212148296</v>
       </c>
       <c r="I325" t="n">
         <v>8.433610255975919</v>
@@ -13893,7 +13961,7 @@
         <v>29.62588483501117</v>
       </c>
       <c r="H330" t="n">
-        <v>7.49532023756676</v>
+        <v>7.495320237566761</v>
       </c>
       <c r="I330" t="n">
         <v>8.268177118267863</v>
@@ -14136,7 +14204,7 @@
         <v>22.5</v>
       </c>
       <c r="G336" t="n">
-        <v>30.94069256776684</v>
+        <v>30.94069256776683</v>
       </c>
       <c r="H336" t="n">
         <v>7.179448663181069</v>
@@ -14183,7 +14251,7 @@
         <v>7.175325354873774</v>
       </c>
       <c r="I337" t="n">
-        <v>6.906959131861052</v>
+        <v>6.906959131861053</v>
       </c>
       <c r="J337" t="n">
         <v>101.8708447408722</v>
@@ -15205,7 +15273,7 @@
         <v>-999</v>
       </c>
       <c r="H362" t="n">
-        <v>9.04956476683938</v>
+        <v>9.049564766839378</v>
       </c>
       <c r="I362" t="n">
         <v>3.831357512953367</v>
@@ -15246,7 +15314,7 @@
         <v>-999</v>
       </c>
       <c r="H363" t="n">
-        <v>8.978062176165803</v>
+        <v>8.978062176165801</v>
       </c>
       <c r="I363" t="n">
         <v>3.468663212435232</v>
@@ -15369,7 +15437,7 @@
         <v>34.33246391752577</v>
       </c>
       <c r="H366" t="n">
-        <v>8.902618556701032</v>
+        <v>8.902618556701031</v>
       </c>
       <c r="I366" t="n">
         <v>3.000546391752577</v>
@@ -15940,7 +16008,7 @@
         <v>27.5</v>
       </c>
       <c r="G380" t="n">
-        <v>34.73581632653062</v>
+        <v>34.73581632653061</v>
       </c>
       <c r="H380" t="n">
         <v>8.003959183673469</v>
@@ -16678,7 +16746,7 @@
         <v>6.5</v>
       </c>
       <c r="G398" t="n">
-        <v>25.9753449569511</v>
+        <v>25.97534495695111</v>
       </c>
       <c r="H398" t="n">
         <v>15.50612632984999</v>
@@ -16766,7 +16834,7 @@
         <v>14.95505769698438</v>
       </c>
       <c r="I400" t="n">
-        <v>6.848231572801125</v>
+        <v>6.848231572801124</v>
       </c>
       <c r="J400" t="n">
         <v>116.5210095188485</v>
@@ -16801,7 +16869,7 @@
         <v>9.5</v>
       </c>
       <c r="G401" t="n">
-        <v>29.79220944747781</v>
+        <v>29.79220944747782</v>
       </c>
       <c r="H401" t="n">
         <v>14.83423589694016</v>
@@ -16848,7 +16916,7 @@
         <v>14.82281534894736</v>
       </c>
       <c r="I402" t="n">
-        <v>6.539489992147314</v>
+        <v>6.539489992147313</v>
       </c>
       <c r="J402" t="n">
         <v>111.543758535157</v>
@@ -17334,13 +17402,13 @@
         <v>22.5</v>
       </c>
       <c r="G414" t="n">
-        <v>31.27586954758451</v>
+        <v>31.27586954758452</v>
       </c>
       <c r="H414" t="n">
         <v>14.75876120922296</v>
       </c>
       <c r="I414" t="n">
-        <v>5.854776425224333</v>
+        <v>5.854776425224332</v>
       </c>
       <c r="J414" t="n">
         <v>100.5221829984722</v>
@@ -19838,7 +19906,7 @@
         <v>24.99678613435052</v>
       </c>
       <c r="H475" t="n">
-        <v>5.835509769702231</v>
+        <v>5.83550976970223</v>
       </c>
       <c r="I475" t="n">
         <v>7.471386576619993</v>
@@ -19879,7 +19947,7 @@
         <v>25.88037826057805</v>
       </c>
       <c r="H476" t="n">
-        <v>5.990641833277044</v>
+        <v>5.990641833277043</v>
       </c>
       <c r="I476" t="n">
         <v>7.446518758570661</v>
@@ -19964,7 +20032,7 @@
         <v>6.88878332939446</v>
       </c>
       <c r="I478" t="n">
-        <v>7.184001401283383</v>
+        <v>7.184001401283385</v>
       </c>
       <c r="J478" t="n">
         <v>101.4616317951326</v>
@@ -19999,7 +20067,7 @@
         <v>9.5</v>
       </c>
       <c r="G479" t="n">
-        <v>28.24474354236587</v>
+        <v>28.24474354236586</v>
       </c>
       <c r="H479" t="n">
         <v>7.286471375512993</v>
@@ -20289,7 +20357,7 @@
         <v>32.45347620018877</v>
       </c>
       <c r="H486" t="n">
-        <v>9.906991707496179</v>
+        <v>9.90699170749618</v>
       </c>
       <c r="I486" t="n">
         <v>5.878923541163175</v>
@@ -20532,13 +20600,13 @@
         <v>22.5</v>
       </c>
       <c r="G492" t="n">
-        <v>33.4052555407876</v>
+        <v>33.40525554078759</v>
       </c>
       <c r="H492" t="n">
         <v>10.77207858236798</v>
       </c>
       <c r="I492" t="n">
-        <v>5.253430722107174</v>
+        <v>5.253430722107173</v>
       </c>
       <c r="J492" t="n">
         <v>84.12214768686906</v>
@@ -21355,7 +21423,7 @@
         <v>31.6474080720355</v>
       </c>
       <c r="H512" t="n">
-        <v>7.595612146518506</v>
+        <v>7.595612146518505</v>
       </c>
       <c r="I512" t="n">
         <v>6.699316654772001</v>
@@ -21437,13 +21505,13 @@
         <v>32.06885308261779</v>
       </c>
       <c r="H514" t="n">
-        <v>6.935982899537886</v>
+        <v>6.935982899537885</v>
       </c>
       <c r="I514" t="n">
         <v>6.824480732319607</v>
       </c>
       <c r="J514" t="n">
-        <v>99.47951964382486</v>
+        <v>99.47951964382484</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -21560,7 +21628,7 @@
         <v>32.87655528192037</v>
       </c>
       <c r="H517" t="n">
-        <v>8.051371294499377</v>
+        <v>8.051371294499376</v>
       </c>
       <c r="I517" t="n">
         <v>6.015093715942118</v>
@@ -21645,7 +21713,7 @@
         <v>8.689554003966935</v>
       </c>
       <c r="I519" t="n">
-        <v>5.452925737116717</v>
+        <v>5.452925737116718</v>
       </c>
       <c r="J519" t="n">
         <v>83.38435387049739</v>
@@ -21850,7 +21918,7 @@
         <v>9.317558391627735</v>
       </c>
       <c r="I524" t="n">
-        <v>4.668089267940488</v>
+        <v>4.668089267940487</v>
       </c>
       <c r="J524" t="n">
         <v>72.7596675802216</v>
@@ -21929,7 +21997,7 @@
         <v>34.15180256247916</v>
       </c>
       <c r="H526" t="n">
-        <v>9.293642984838636</v>
+        <v>9.293642984838634</v>
       </c>
       <c r="I526" t="n">
         <v>4.721522421692671</v>
@@ -21970,7 +22038,7 @@
         <v>34.15595851752442</v>
       </c>
       <c r="H527" t="n">
-        <v>9.152801223557352</v>
+        <v>9.152801223557351</v>
       </c>
       <c r="I527" t="n">
         <v>4.777561169876082</v>
@@ -22055,7 +22123,7 @@
         <v>8.970671432846592</v>
       </c>
       <c r="I529" t="n">
-        <v>4.852950004987692</v>
+        <v>4.852950004987691</v>
       </c>
       <c r="J529" t="n">
         <v>75.08310718917141</v>
@@ -22134,7 +22202,7 @@
         <v>34.23309529141869</v>
       </c>
       <c r="H531" t="n">
-        <v>8.94222216001153</v>
+        <v>8.942222160011529</v>
       </c>
       <c r="I531" t="n">
         <v>4.832222160011529</v>
@@ -22913,7 +22981,7 @@
         <v>29.47990453323732</v>
       </c>
       <c r="H550" t="n">
-        <v>7.419788481100069</v>
+        <v>7.41978848110007</v>
       </c>
       <c r="I550" t="n">
         <v>9.250226370440224</v>
@@ -22954,7 +23022,7 @@
         <v>30.60081130132611</v>
       </c>
       <c r="H551" t="n">
-        <v>7.77457832410867</v>
+        <v>7.774578324108671</v>
       </c>
       <c r="I551" t="n">
         <v>9.510135667395859</v>
@@ -22995,7 +23063,7 @@
         <v>31.23844465602502</v>
       </c>
       <c r="H552" t="n">
-        <v>7.820798954486199</v>
+        <v>7.8207989544862</v>
       </c>
       <c r="I552" t="n">
         <v>9.115840052973411</v>
@@ -23036,7 +23104,7 @@
         <v>31.54130954564191</v>
       </c>
       <c r="H553" t="n">
-        <v>7.365600236460822</v>
+        <v>7.365600236460823</v>
       </c>
       <c r="I553" t="n">
         <v>8.794046107755472</v>
@@ -23364,7 +23432,7 @@
         <v>33.21427964031514</v>
       </c>
       <c r="H561" t="n">
-        <v>8.404020122178553</v>
+        <v>8.404020122178554</v>
       </c>
       <c r="I561" t="n">
         <v>5.928592874053507</v>
@@ -23411,7 +23479,7 @@
         <v>5.809726501421481</v>
       </c>
       <c r="J562" t="n">
-        <v>88.23406157985607</v>
+        <v>88.23406157985609</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -23528,7 +23596,7 @@
         <v>33.71901591156925</v>
       </c>
       <c r="H565" t="n">
-        <v>8.873283812084653</v>
+        <v>8.873283812084651</v>
       </c>
       <c r="I565" t="n">
         <v>5.042984088430753</v>
@@ -23572,7 +23640,7 @@
         <v>9.063988571828464</v>
       </c>
       <c r="I566" t="n">
-        <v>4.953240672080723</v>
+        <v>4.953240672080724</v>
       </c>
       <c r="J566" t="n">
         <v>76.57808619234392</v>
@@ -23613,7 +23681,7 @@
         <v>9.098421962030155</v>
       </c>
       <c r="I567" t="n">
-        <v>4.891285275390997</v>
+        <v>4.891285275390998</v>
       </c>
       <c r="J567" t="n">
         <v>75.76047033854663</v>
@@ -23771,13 +23839,13 @@
         <v>23.5</v>
       </c>
       <c r="G571" t="n">
-        <v>34.04894456035904</v>
+        <v>34.04894456035903</v>
       </c>
       <c r="H571" t="n">
         <v>8.931380104300306</v>
       </c>
       <c r="I571" t="n">
-        <v>4.644160432199095</v>
+        <v>4.644160432199094</v>
       </c>
       <c r="J571" t="n">
         <v>71.7461192251325</v>
@@ -23812,7 +23880,7 @@
         <v>24.5</v>
       </c>
       <c r="G572" t="n">
-        <v>34.05982565905388</v>
+        <v>34.05982565905387</v>
       </c>
       <c r="H572" t="n">
         <v>8.853348681892259</v>
@@ -24512,7 +24580,7 @@
         <v>-999</v>
       </c>
       <c r="H589" t="n">
-        <v>8.911925683651203</v>
+        <v>8.911925683651202</v>
       </c>
       <c r="I589" t="n">
         <v>9.093239966554982</v>
@@ -24553,7 +24621,7 @@
         <v>22.85169389546557</v>
       </c>
       <c r="H590" t="n">
-        <v>9.123929602167784</v>
+        <v>9.123929602167783</v>
       </c>
       <c r="I590" t="n">
         <v>9.246010057353642</v>
@@ -24594,7 +24662,7 @@
         <v>24.696161871532</v>
       </c>
       <c r="H591" t="n">
-        <v>9.565947075722166</v>
+        <v>9.565947075722164</v>
       </c>
       <c r="I591" t="n">
         <v>9.058834756823822</v>
@@ -24676,7 +24744,7 @@
         <v>27.4376545970654</v>
       </c>
       <c r="H593" t="n">
-        <v>10.07745285041749</v>
+        <v>10.0774528504175</v>
       </c>
       <c r="I593" t="n">
         <v>8.906838451952355</v>
@@ -24884,7 +24952,7 @@
         <v>8.4649240925692</v>
       </c>
       <c r="I598" t="n">
-        <v>7.316941381702681</v>
+        <v>7.316941381702683</v>
       </c>
       <c r="J598" t="n">
         <v>110.3498359840483</v>
@@ -24925,10 +24993,10 @@
         <v>8.364393637652267</v>
       </c>
       <c r="I599" t="n">
-        <v>6.574299382826949</v>
+        <v>6.574299382826951</v>
       </c>
       <c r="J599" t="n">
-        <v>99.36848799376025</v>
+        <v>99.36848799376027</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -24969,7 +25037,7 @@
         <v>6.055766610998871</v>
       </c>
       <c r="J600" t="n">
-        <v>91.64149916498306</v>
+        <v>91.64149916498307</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -25209,7 +25277,7 @@
         <v>33.45660439067921</v>
       </c>
       <c r="H606" t="n">
-        <v>8.229511994952018</v>
+        <v>8.229511994952016</v>
       </c>
       <c r="I606" t="n">
         <v>4.908139866408272</v>
@@ -25253,10 +25321,10 @@
         <v>8.175780808061731</v>
       </c>
       <c r="I607" t="n">
-        <v>4.859608471797692</v>
+        <v>4.859608471797691</v>
       </c>
       <c r="J607" t="n">
-        <v>73.53185573447932</v>
+        <v>73.53185573447931</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -26152,7 +26220,7 @@
         <v>-999</v>
       </c>
       <c r="H629" t="n">
-        <v>15.46340295044966</v>
+        <v>15.46340295044965</v>
       </c>
       <c r="I629" t="n">
         <v>-999</v>
@@ -26196,7 +26264,7 @@
         <v>15.5156672983959</v>
       </c>
       <c r="I630" t="n">
-        <v>6.63485218400393</v>
+        <v>6.634852184003932</v>
       </c>
       <c r="J630" t="n">
         <v>109.0544129888429</v>
@@ -26237,10 +26305,10 @@
         <v>14.89647739806072</v>
       </c>
       <c r="I631" t="n">
-        <v>5.914707408614098</v>
+        <v>5.9147074086141</v>
       </c>
       <c r="J631" t="n">
-        <v>98.45415110810472</v>
+        <v>98.45415110810474</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -26395,7 +26463,7 @@
         <v>9.5</v>
       </c>
       <c r="G635" t="n">
-        <v>29.50650693051888</v>
+        <v>29.50650693051887</v>
       </c>
       <c r="H635" t="n">
         <v>13.74489446822074</v>
@@ -27098,7 +27166,7 @@
         <v>12.23586438708237</v>
       </c>
       <c r="I652" t="n">
-        <v>5.621633790807848</v>
+        <v>5.621633790807849</v>
       </c>
       <c r="J652" t="n">
         <v>91.29732617782645</v>
@@ -27956,7 +28024,7 @@
         <v>31.34374791093759</v>
       </c>
       <c r="H673" t="n">
-        <v>11.68487741001839</v>
+        <v>11.68487741001838</v>
       </c>
       <c r="I673" t="n">
         <v>5.294574389613931</v>
@@ -28167,7 +28235,7 @@
         <v>5.102381191976709</v>
       </c>
       <c r="J678" t="n">
-        <v>82.05230164915042</v>
+        <v>82.05230164915044</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -28240,10 +28308,10 @@
         <v>15.5</v>
       </c>
       <c r="G680" t="n">
-        <v>31.8668666695035</v>
+        <v>31.86686666950351</v>
       </c>
       <c r="H680" t="n">
-        <v>11.50144604261523</v>
+        <v>11.50144604261524</v>
       </c>
       <c r="I680" t="n">
         <v>5.030099374813832</v>
@@ -28413,7 +28481,7 @@
         <v>4.957183829045634</v>
       </c>
       <c r="J684" t="n">
-        <v>79.25764737403621</v>
+        <v>79.25764737403622</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -29200,7 +29268,8002 @@
         </is>
       </c>
     </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E704" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H704" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I704" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J704" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G705" t="n">
+        <v>25.92710826073188</v>
+      </c>
+      <c r="H705" t="n">
+        <v>6.328532784729034</v>
+      </c>
+      <c r="I705" t="n">
+        <v>7.806096869950734</v>
+      </c>
+      <c r="J705" t="n">
+        <v>111.4797721843771</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F706" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G706" t="n">
+        <v>26.62519940985649</v>
+      </c>
+      <c r="H706" t="n">
+        <v>6.48449794826368</v>
+      </c>
+      <c r="I706" t="n">
+        <v>7.839595601455605</v>
+      </c>
+      <c r="J706" t="n">
+        <v>112.8848005901435</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E707" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F707" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G707" t="n">
+        <v>26.73374497493197</v>
+      </c>
+      <c r="H707" t="n">
+        <v>6.487796671035687</v>
+      </c>
+      <c r="I707" t="n">
+        <v>7.815067776321436</v>
+      </c>
+      <c r="J707" t="n">
+        <v>112.6256576629422</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E708" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F708" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G708" t="n">
+        <v>26.84784525679333</v>
+      </c>
+      <c r="H708" t="n">
+        <v>6.59118413695644</v>
+      </c>
+      <c r="I708" t="n">
+        <v>7.763754160122335</v>
+      </c>
+      <c r="J708" t="n">
+        <v>112.2427717724189</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E709" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F709" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G709" t="n">
+        <v>27.02503743950235</v>
+      </c>
+      <c r="H709" t="n">
+        <v>6.644763852615871</v>
+      </c>
+      <c r="I709" t="n">
+        <v>7.701736896174175</v>
+      </c>
+      <c r="J709" t="n">
+        <v>111.6498801935925</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E710" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F710" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G710" t="n">
+        <v>27.18345059463167</v>
+      </c>
+      <c r="H710" t="n">
+        <v>6.611196585734895</v>
+      </c>
+      <c r="I710" t="n">
+        <v>7.637811174435379</v>
+      </c>
+      <c r="J710" t="n">
+        <v>110.7354423192149</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E711" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F711" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G711" t="n">
+        <v>27.52437633100885</v>
+      </c>
+      <c r="H711" t="n">
+        <v>6.606249467596459</v>
+      </c>
+      <c r="I711" t="n">
+        <v>7.528742537941002</v>
+      </c>
+      <c r="J711" t="n">
+        <v>109.3733262346195</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E712" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F712" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G712" t="n">
+        <v>27.61243032174519</v>
+      </c>
+      <c r="H712" t="n">
+        <v>6.56224303217452</v>
+      </c>
+      <c r="I712" t="n">
+        <v>7.481298774778362</v>
+      </c>
+      <c r="J712" t="n">
+        <v>108.6859754955673</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E713" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F713" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G713" t="n">
+        <v>27.63415968536023</v>
+      </c>
+      <c r="H713" t="n">
+        <v>6.559460078659942</v>
+      </c>
+      <c r="I713" t="n">
+        <v>7.475999999999999</v>
+      </c>
+      <c r="J713" t="n">
+        <v>108.5870798426801</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E714" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F714" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G714" t="n">
+        <v>27.65912709529139</v>
+      </c>
+      <c r="H714" t="n">
+        <v>6.561825419058279</v>
+      </c>
+      <c r="I714" t="n">
+        <v>7.469305516648012</v>
+      </c>
+      <c r="J714" t="n">
+        <v>108.4752374282516</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E715" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F715" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G715" t="n">
+        <v>27.78765409631961</v>
+      </c>
+      <c r="H715" t="n">
+        <v>6.60809445174899</v>
+      </c>
+      <c r="I715" t="n">
+        <v>7.438321066288136</v>
+      </c>
+      <c r="J715" t="n">
+        <v>108.2882306024536</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E716" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F716" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G716" t="n">
+        <v>28.04812330069326</v>
+      </c>
+      <c r="H716" t="n">
+        <v>6.770467815381292</v>
+      </c>
+      <c r="I716" t="n">
+        <v>7.336219582660302</v>
+      </c>
+      <c r="J716" t="n">
+        <v>107.3696971860484</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E717" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F717" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G717" t="n">
+        <v>28.48886000701848</v>
+      </c>
+      <c r="H717" t="n">
+        <v>7.126164005146886</v>
+      </c>
+      <c r="I717" t="n">
+        <v>7.057908113504778</v>
+      </c>
+      <c r="J717" t="n">
+        <v>104.4343234846862</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E718" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F718" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G718" t="n">
+        <v>28.72996668797781</v>
+      </c>
+      <c r="H718" t="n">
+        <v>7.342096696197824</v>
+      </c>
+      <c r="I718" t="n">
+        <v>6.891033312022189</v>
+      </c>
+      <c r="J718" t="n">
+        <v>102.6203664322441</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E719" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F719" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G719" t="n">
+        <v>28.92591783443976</v>
+      </c>
+      <c r="H719" t="n">
+        <v>7.496966872651386</v>
+      </c>
+      <c r="I719" t="n">
+        <v>6.736857515892168</v>
+      </c>
+      <c r="J719" t="n">
+        <v>100.8542080251458</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E720" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F720" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G720" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="H720" t="n">
+        <v>7.58321567162717</v>
+      </c>
+      <c r="I720" t="n">
+        <v>6.648993532406543</v>
+      </c>
+      <c r="J720" t="n">
+        <v>99.82274626982645</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E721" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F721" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G721" t="n">
+        <v>29.00103571414352</v>
+      </c>
+      <c r="H721" t="n">
+        <v>7.584207142828703</v>
+      </c>
+      <c r="I721" t="n">
+        <v>6.629724999900461</v>
+      </c>
+      <c r="J721" t="n">
+        <v>99.53724999900462</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E722" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F722" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G722" t="n">
+        <v>29.10553681621085</v>
+      </c>
+      <c r="H722" t="n">
+        <v>7.737782217907243</v>
+      </c>
+      <c r="I722" t="n">
+        <v>6.54984738784186</v>
+      </c>
+      <c r="J722" t="n">
+        <v>98.74601222243366</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E723" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F723" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G723" t="n">
+        <v>29.58165210124621</v>
+      </c>
+      <c r="H723" t="n">
+        <v>7.996207419158927</v>
+      </c>
+      <c r="I723" t="n">
+        <v>6.341818508235939</v>
+      </c>
+      <c r="J723" t="n">
+        <v>96.45524567640139</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E724" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F724" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G724" t="n">
+        <v>29.76357208993306</v>
+      </c>
+      <c r="H724" t="n">
+        <v>8.158245578216865</v>
+      </c>
+      <c r="I724" t="n">
+        <v>6.161999074093711</v>
+      </c>
+      <c r="J724" t="n">
+        <v>94.18886517410981</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E725" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F725" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G725" t="n">
+        <v>30.04981099916987</v>
+      </c>
+      <c r="H725" t="n">
+        <v>8.307712941027223</v>
+      </c>
+      <c r="I725" t="n">
+        <v>6.027537503688726</v>
+      </c>
+      <c r="J725" t="n">
+        <v>92.62537503688726</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E726" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F726" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G726" t="n">
+        <v>30.37278814539598</v>
+      </c>
+      <c r="H726" t="n">
+        <v>8.908523259996789</v>
+      </c>
+      <c r="I726" t="n">
+        <v>5.77537121556617</v>
+      </c>
+      <c r="J726" t="n">
+        <v>90.12795999080801</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E727" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F727" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G727" t="n">
+        <v>31.20589841505447</v>
+      </c>
+      <c r="H727" t="n">
+        <v>9.49164751269487</v>
+      </c>
+      <c r="I727" t="n">
+        <v>5.413562248250846</v>
+      </c>
+      <c r="J727" t="n">
+        <v>86.04752785466756</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E728" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F728" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G728" t="n">
+        <v>32.28620929887798</v>
+      </c>
+      <c r="H728" t="n">
+        <v>9.819431394831698</v>
+      </c>
+      <c r="I728" t="n">
+        <v>4.978637679727912</v>
+      </c>
+      <c r="J728" t="n">
+        <v>80.25763031771392</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E729" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F729" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G729" t="n">
+        <v>32.5629182504826</v>
+      </c>
+      <c r="H729" t="n">
+        <v>9.82735408747587</v>
+      </c>
+      <c r="I729" t="n">
+        <v>4.756904045514278</v>
+      </c>
+      <c r="J729" t="n">
+        <v>76.79887199485223</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E730" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F730" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H730" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I730" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J730" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E731" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F731" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H731" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I731" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J731" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E732" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F732" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H732" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J732" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E733" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F733" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H733" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I733" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J733" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E734" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F734" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H734" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J734" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E735" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F735" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H735" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I735" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J735" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E736" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F736" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H736" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I736" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J736" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E737" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F737" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H737" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I737" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J737" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E738" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F738" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H738" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I738" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J738" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E739" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F739" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H739" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I739" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J739" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E740" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F740" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H740" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I740" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J740" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E741" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F741" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H741" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J741" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>43915</v>
+      </c>
+      <c r="E742" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F742" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H742" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I742" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J742" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E743" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H743" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I743" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J743" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G744" t="n">
+        <v>17.78853375649381</v>
+      </c>
+      <c r="H744" t="n">
+        <v>8.029587076998732</v>
+      </c>
+      <c r="I744" t="n">
+        <v>8.377953018429389</v>
+      </c>
+      <c r="J744" t="n">
+        <v>117.2799871294975</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F745" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G745" t="n">
+        <v>21.91180914953596</v>
+      </c>
+      <c r="H745" t="n">
+        <v>8.745882972286482</v>
+      </c>
+      <c r="I745" t="n">
+        <v>8.21898959952548</v>
+      </c>
+      <c r="J745" t="n">
+        <v>120.1187965720842</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E746" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F746" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G746" t="n">
+        <v>25.40466050537035</v>
+      </c>
+      <c r="H746" t="n">
+        <v>9.237343382319851</v>
+      </c>
+      <c r="I746" t="n">
+        <v>7.961251452219394</v>
+      </c>
+      <c r="J746" t="n">
+        <v>120.4118880514734</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E747" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F747" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G747" t="n">
+        <v>26.3213509744322</v>
+      </c>
+      <c r="H747" t="n">
+        <v>9.406005707014897</v>
+      </c>
+      <c r="I747" t="n">
+        <v>7.883050416536518</v>
+      </c>
+      <c r="J747" t="n">
+        <v>120.2432532727869</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E748" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F748" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G748" t="n">
+        <v>27.2856934888663</v>
+      </c>
+      <c r="H748" t="n">
+        <v>9.491204707768187</v>
+      </c>
+      <c r="I748" t="n">
+        <v>7.817692278972349</v>
+      </c>
+      <c r="J748" t="n">
+        <v>119.7297250490685</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E749" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F749" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G749" t="n">
+        <v>28.25003600330039</v>
+      </c>
+      <c r="H749" t="n">
+        <v>9.550856831972332</v>
+      </c>
+      <c r="I749" t="n">
+        <v>7.485168871851211</v>
+      </c>
+      <c r="J749" t="n">
+        <v>114.3056339898158</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E750" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F750" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G750" t="n">
+        <v>29.21437851773449</v>
+      </c>
+      <c r="H750" t="n">
+        <v>9.592873130138818</v>
+      </c>
+      <c r="I750" t="n">
+        <v>6.968212733466567</v>
+      </c>
+      <c r="J750" t="n">
+        <v>105.4916243333574</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E751" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F751" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G751" t="n">
+        <v>30.17872103216859</v>
+      </c>
+      <c r="H751" t="n">
+        <v>9.567079823182269</v>
+      </c>
+      <c r="I751" t="n">
+        <v>6.451256595081922</v>
+      </c>
+      <c r="J751" t="n">
+        <v>96.67761467689903</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E752" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F752" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G752" t="n">
+        <v>31.18121315799747</v>
+      </c>
+      <c r="H752" t="n">
+        <v>9.51037728254941</v>
+      </c>
+      <c r="I752" t="n">
+        <v>5.934300456697278</v>
+      </c>
+      <c r="J752" t="n">
+        <v>87.86360502044064</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E753" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F753" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G753" t="n">
+        <v>32.36445675431879</v>
+      </c>
+      <c r="H753" t="n">
+        <v>9.351879135031568</v>
+      </c>
+      <c r="I753" t="n">
+        <v>5.417344318312634</v>
+      </c>
+      <c r="J753" t="n">
+        <v>79.04959536398226</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E754" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F754" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G754" t="n">
+        <v>33.30424163100147</v>
+      </c>
+      <c r="H754" t="n">
+        <v>9.20310509905269</v>
+      </c>
+      <c r="I754" t="n">
+        <v>4.900388179927988</v>
+      </c>
+      <c r="J754" t="n">
+        <v>71.41227712638172</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E755" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F755" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G755" t="n">
+        <v>33.5603186812036</v>
+      </c>
+      <c r="H755" t="n">
+        <v>9.081639393515331</v>
+      </c>
+      <c r="I755" t="n">
+        <v>4.383432041543343</v>
+      </c>
+      <c r="J755" t="n">
+        <v>67.07947446998416</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E756" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F756" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G756" t="n">
+        <v>33.74221366742009</v>
+      </c>
+      <c r="H756" t="n">
+        <v>9.035953802491392</v>
+      </c>
+      <c r="I756" t="n">
+        <v>4.023922039732833</v>
+      </c>
+      <c r="J756" t="n">
+        <v>63.9105774688576</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E757" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F757" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G757" t="n">
+        <v>33.8086388577114</v>
+      </c>
+      <c r="H757" t="n">
+        <v>9.113470657537473</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.951176391385744</v>
+      </c>
+      <c r="J757" t="n">
+        <v>62.91890653056416</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E758" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F758" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G758" t="n">
+        <v>33.92767467257683</v>
+      </c>
+      <c r="H758" t="n">
+        <v>9.152245379738687</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.905081331855794</v>
+      </c>
+      <c r="J758" t="n">
+        <v>62.31490759477375</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E759" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F759" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G759" t="n">
+        <v>34.03879632355799</v>
+      </c>
+      <c r="H759" t="n">
+        <v>9.127436703405175</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.877510643377351</v>
+      </c>
+      <c r="J759" t="n">
+        <v>61.85951378665753</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E760" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F760" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G760" t="n">
+        <v>34.15566051135745</v>
+      </c>
+      <c r="H760" t="n">
+        <v>9.009815340723659</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.858018465927634</v>
+      </c>
+      <c r="J760" t="n">
+        <v>61.42242491887532</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E761" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F761" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G761" t="n">
+        <v>34.13648611469669</v>
+      </c>
+      <c r="H761" t="n">
+        <v>8.80075060651494</v>
+      </c>
+      <c r="I761" t="n">
+        <v>3.881808573787966</v>
+      </c>
+      <c r="J761" t="n">
+        <v>61.49901770505117</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E762" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F762" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G762" t="n">
+        <v>34.11216836208931</v>
+      </c>
+      <c r="H762" t="n">
+        <v>8.764236710107561</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.895508859928292</v>
+      </c>
+      <c r="J762" t="n">
+        <v>61.61254429964146</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E763" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F763" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G763" t="n">
+        <v>34.21990372402289</v>
+      </c>
+      <c r="H763" t="n">
+        <v>8.741058128489662</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3.877730850651403</v>
+      </c>
+      <c r="J763" t="n">
+        <v>61.36788676721567</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E764" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F764" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H764" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I764" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J764" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E765" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F765" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H765" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I765" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J765" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E766" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F766" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H766" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I766" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J766" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E767" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F767" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H767" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I767" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J767" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E768" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F768" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G768" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H768" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I768" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J768" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E769" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F769" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H769" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I769" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J769" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E770" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F770" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H770" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I770" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J770" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E771" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F771" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G771" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H771" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I771" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J771" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E772" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F772" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H772" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I772" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J772" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E773" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F773" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H773" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I773" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J773" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E774" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F774" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H774" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I774" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J774" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E775" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F775" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G775" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H775" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I775" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J775" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E776" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F776" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G776" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H776" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I776" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J776" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E777" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F777" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H777" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I777" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J777" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E778" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F778" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G778" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H778" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I778" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J778" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E779" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F779" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H779" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I779" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J779" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E780" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F780" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H780" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I780" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J780" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>43966</v>
+      </c>
+      <c r="E781" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F781" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H781" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I781" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J781" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E782" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F782" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H782" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I782" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J782" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E783" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F783" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G783" t="n">
+        <v>2.363012178648328</v>
+      </c>
+      <c r="H783" t="n">
+        <v>10.30822973504785</v>
+      </c>
+      <c r="I783" t="n">
+        <v>8.198830930103668</v>
+      </c>
+      <c r="J783" t="n">
+        <v>109.5849204340112</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E784" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F784" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G784" t="n">
+        <v>2.953397500062837</v>
+      </c>
+      <c r="H784" t="n">
+        <v>10.58446532194433</v>
+      </c>
+      <c r="I784" t="n">
+        <v>8.362184016963667</v>
+      </c>
+      <c r="J784" t="n">
+        <v>112.9936496546765</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E785" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F785" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G785" t="n">
+        <v>6.884937139026713</v>
+      </c>
+      <c r="H785" t="n">
+        <v>11.63349802399614</v>
+      </c>
+      <c r="I785" t="n">
+        <v>8.465877081573833</v>
+      </c>
+      <c r="J785" t="n">
+        <v>120.0783992569394</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E786" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F786" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G786" t="n">
+        <v>8.211350840027171</v>
+      </c>
+      <c r="H786" t="n">
+        <v>12.1067531846428</v>
+      </c>
+      <c r="I786" t="n">
+        <v>8.463740022851532</v>
+      </c>
+      <c r="J786" t="n">
+        <v>122.3364293875547</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E787" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F787" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G787" t="n">
+        <v>10.63496193221582</v>
+      </c>
+      <c r="H787" t="n">
+        <v>12.33934366617787</v>
+      </c>
+      <c r="I787" t="n">
+        <v>8.63961674559523</v>
+      </c>
+      <c r="J787" t="n">
+        <v>127.5162820178821</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E788" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F788" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G788" t="n">
+        <v>15.19276110359829</v>
+      </c>
+      <c r="H788" t="n">
+        <v>12.72254243425617</v>
+      </c>
+      <c r="I788" t="n">
+        <v>8.84645056953989</v>
+      </c>
+      <c r="J788" t="n">
+        <v>134.9996260195366</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E789" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F789" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G789" t="n">
+        <v>20.86217102526186</v>
+      </c>
+      <c r="H789" t="n">
+        <v>13.08548333783027</v>
+      </c>
+      <c r="I789" t="n">
+        <v>8.238846857293316</v>
+      </c>
+      <c r="J789" t="n">
+        <v>131.4090180513972</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E790" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F790" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G790" t="n">
+        <v>25.92680115975417</v>
+      </c>
+      <c r="H790" t="n">
+        <v>12.86245601268469</v>
+      </c>
+      <c r="I790" t="n">
+        <v>7.511892182493066</v>
+      </c>
+      <c r="J790" t="n">
+        <v>123.3051615853774</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E791" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F791" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G791" t="n">
+        <v>27.79127644897127</v>
+      </c>
+      <c r="H791" t="n">
+        <v>12.51709716179411</v>
+      </c>
+      <c r="I791" t="n">
+        <v>7.134070459208359</v>
+      </c>
+      <c r="J791" t="n">
+        <v>117.6524526026372</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E792" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F792" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G792" t="n">
+        <v>28.51732908709741</v>
+      </c>
+      <c r="H792" t="n">
+        <v>12.26518040986066</v>
+      </c>
+      <c r="I792" t="n">
+        <v>6.88093899460084</v>
+      </c>
+      <c r="J792" t="n">
+        <v>113.4199024240825</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E793" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F793" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G793" t="n">
+        <v>28.93044138455388</v>
+      </c>
+      <c r="H793" t="n">
+        <v>12.06411846475571</v>
+      </c>
+      <c r="I793" t="n">
+        <v>6.707099759794285</v>
+      </c>
+      <c r="J793" t="n">
+        <v>110.3274689892388</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E794" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F794" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G794" t="n">
+        <v>29.12586184719554</v>
+      </c>
+      <c r="H794" t="n">
+        <v>11.85260652153205</v>
+      </c>
+      <c r="I794" t="n">
+        <v>6.558992600545109</v>
+      </c>
+      <c r="J794" t="n">
+        <v>107.5821727132404</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E795" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F795" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G795" t="n">
+        <v>29.43117673221057</v>
+      </c>
+      <c r="H795" t="n">
+        <v>11.69242774122768</v>
+      </c>
+      <c r="I795" t="n">
+        <v>6.435173602281427</v>
+      </c>
+      <c r="J795" t="n">
+        <v>105.3471812167311</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E796" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F796" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G796" t="n">
+        <v>29.87599163233403</v>
+      </c>
+      <c r="H796" t="n">
+        <v>11.45474239902801</v>
+      </c>
+      <c r="I796" t="n">
+        <v>6.30095803032062</v>
+      </c>
+      <c r="J796" t="n">
+        <v>102.9081341453546</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E797" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F797" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G797" t="n">
+        <v>30.10861849050211</v>
+      </c>
+      <c r="H797" t="n">
+        <v>11.30483543675357</v>
+      </c>
+      <c r="I797" t="n">
+        <v>6.241492402863749</v>
+      </c>
+      <c r="J797" t="n">
+        <v>101.8195797078721</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E798" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F798" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G798" t="n">
+        <v>30.36114005543617</v>
+      </c>
+      <c r="H798" t="n">
+        <v>11.23503129952729</v>
+      </c>
+      <c r="I798" t="n">
+        <v>6.242268258057586</v>
+      </c>
+      <c r="J798" t="n">
+        <v>101.8103129952729</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E799" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F799" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G799" t="n">
+        <v>30.5893177391533</v>
+      </c>
+      <c r="H799" t="n">
+        <v>11.20843336294573</v>
+      </c>
+      <c r="I799" t="n">
+        <v>6.189705207930811</v>
+      </c>
+      <c r="J799" t="n">
+        <v>100.9835525234941</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E800" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F800" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G800" t="n">
+        <v>30.79982192128333</v>
+      </c>
+      <c r="H800" t="n">
+        <v>11.07495144501192</v>
+      </c>
+      <c r="I800" t="n">
+        <v>6.173681983854324</v>
+      </c>
+      <c r="J800" t="n">
+        <v>100.63</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E801" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F801" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G801" t="n">
+        <v>30.9006848121781</v>
+      </c>
+      <c r="H801" t="n">
+        <v>10.98032989015998</v>
+      </c>
+      <c r="I801" t="n">
+        <v>6.119720655576328</v>
+      </c>
+      <c r="J801" t="n">
+        <v>99.56369865366229</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E802" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F802" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G802" t="n">
+        <v>31.10006301329875</v>
+      </c>
+      <c r="H802" t="n">
+        <v>10.87821528986867</v>
+      </c>
+      <c r="I802" t="n">
+        <v>5.946780417945043</v>
+      </c>
+      <c r="J802" t="n">
+        <v>96.67612216863485</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E803" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F803" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G803" t="n">
+        <v>31.466178315588</v>
+      </c>
+      <c r="H803" t="n">
+        <v>10.8517192830858</v>
+      </c>
+      <c r="I803" t="n">
+        <v>5.708555949659035</v>
+      </c>
+      <c r="J803" t="n">
+        <v>92.99463046324723</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E804" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F804" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G804" t="n">
+        <v>31.624930323816</v>
+      </c>
+      <c r="H804" t="n">
+        <v>10.82464258254967</v>
+      </c>
+      <c r="I804" t="n">
+        <v>5.544484126654191</v>
+      </c>
+      <c r="J804" t="n">
+        <v>90.33841028871122</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E805" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F805" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G805" t="n">
+        <v>31.7250597253954</v>
+      </c>
+      <c r="H805" t="n">
+        <v>10.97900874331791</v>
+      </c>
+      <c r="I805" t="n">
+        <v>5.35173502861385</v>
+      </c>
+      <c r="J805" t="n">
+        <v>87.59319586207606</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E806" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F806" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G806" t="n">
+        <v>32.22756140930422</v>
+      </c>
+      <c r="H806" t="n">
+        <v>10.97253977084209</v>
+      </c>
+      <c r="I806" t="n">
+        <v>5.017176850163436</v>
+      </c>
+      <c r="J806" t="n">
+        <v>82.32412650381352</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E807" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F807" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G807" t="n">
+        <v>32.57207509482931</v>
+      </c>
+      <c r="H807" t="n">
+        <v>10.55557801722001</v>
+      </c>
+      <c r="I807" t="n">
+        <v>4.936250816650834</v>
+      </c>
+      <c r="J807" t="n">
+        <v>80.43585238851946</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E808" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F808" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G808" t="n">
+        <v>32.61785557844411</v>
+      </c>
+      <c r="H808" t="n">
+        <v>10.18677056921277</v>
+      </c>
+      <c r="I808" t="n">
+        <v>4.963883504285183</v>
+      </c>
+      <c r="J808" t="n">
+        <v>80.27144421555886</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E809" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F809" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G809" t="n">
+        <v>32.79710192564775</v>
+      </c>
+      <c r="H809" t="n">
+        <v>9.92685100177963</v>
+      </c>
+      <c r="I809" t="n">
+        <v>4.875582377002083</v>
+      </c>
+      <c r="J809" t="n">
+        <v>78.5231180709891</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E810" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F810" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G810" t="n">
+        <v>32.99274052577226</v>
+      </c>
+      <c r="H810" t="n">
+        <v>9.800823978907324</v>
+      </c>
+      <c r="I810" t="n">
+        <v>4.645530610419533</v>
+      </c>
+      <c r="J810" t="n">
+        <v>74.63943145689232</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E811" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F811" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G811" t="n">
+        <v>33.19917301790883</v>
+      </c>
+      <c r="H811" t="n">
+        <v>9.663685563407681</v>
+      </c>
+      <c r="I811" t="n">
+        <v>4.277467316070063</v>
+      </c>
+      <c r="J811" t="n">
+        <v>68.62585035334558</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E812" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F812" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G812" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H812" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I812" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J812" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E813" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F813" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G813" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H813" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I813" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J813" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E814" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F814" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H814" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I814" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J814" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E815" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F815" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G815" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H815" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I815" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J815" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E816" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F816" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G816" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H816" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I816" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J816" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E817" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F817" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G817" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H817" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I817" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J817" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E818" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F818" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H818" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I818" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J818" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E819" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F819" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H819" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I819" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J819" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>44022</v>
+      </c>
+      <c r="E820" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F820" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H820" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I820" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J820" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E821" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G821" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H821" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I821" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J821" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F822" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G822" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H822" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I822" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J822" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E823" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F823" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G823" t="n">
+        <v>6.934843572734359</v>
+      </c>
+      <c r="H823" t="n">
+        <v>11.74923800341547</v>
+      </c>
+      <c r="I823" t="n">
+        <v>7.626520101260343</v>
+      </c>
+      <c r="J823" t="n">
+        <v>108.4933310659998</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E824" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F824" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G824" t="n">
+        <v>7.927490396996818</v>
+      </c>
+      <c r="H824" t="n">
+        <v>12.11315897037551</v>
+      </c>
+      <c r="I824" t="n">
+        <v>7.738846932847971</v>
+      </c>
+      <c r="J824" t="n">
+        <v>111.703707035875</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E825" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F825" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G825" t="n">
+        <v>11.57901523774301</v>
+      </c>
+      <c r="H825" t="n">
+        <v>14.03595404026319</v>
+      </c>
+      <c r="I825" t="n">
+        <v>7.361826442404469</v>
+      </c>
+      <c r="J825" t="n">
+        <v>113.3037114808392</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E826" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F826" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G826" t="n">
+        <v>13.60817596524209</v>
+      </c>
+      <c r="H826" t="n">
+        <v>14.99509190969234</v>
+      </c>
+      <c r="I826" t="n">
+        <v>7.159636293709988</v>
+      </c>
+      <c r="J826" t="n">
+        <v>113.9753181738952</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E827" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F827" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G827" t="n">
+        <v>14.290831391736</v>
+      </c>
+      <c r="H827" t="n">
+        <v>15.18137768239046</v>
+      </c>
+      <c r="I827" t="n">
+        <v>7.317487682992956</v>
+      </c>
+      <c r="J827" t="n">
+        <v>117.4195848415996</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E828" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F828" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G828" t="n">
+        <v>16.2661393606752</v>
+      </c>
+      <c r="H828" t="n">
+        <v>15.6521868048131</v>
+      </c>
+      <c r="I828" t="n">
+        <v>7.254143068990708</v>
+      </c>
+      <c r="J828" t="n">
+        <v>118.913914009334</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E829" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F829" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G829" t="n">
+        <v>19.49159137067217</v>
+      </c>
+      <c r="H829" t="n">
+        <v>14.93187330140568</v>
+      </c>
+      <c r="I829" t="n">
+        <v>7.328018796341634</v>
+      </c>
+      <c r="J829" t="n">
+        <v>119.704511482646</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E830" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F830" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G830" t="n">
+        <v>23.51538033833279</v>
+      </c>
+      <c r="H830" t="n">
+        <v>13.98275890147391</v>
+      </c>
+      <c r="I830" t="n">
+        <v>7.175996965077952</v>
+      </c>
+      <c r="J830" t="n">
+        <v>118.7810378276488</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E831" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F831" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G831" t="n">
+        <v>25.91711845871184</v>
+      </c>
+      <c r="H831" t="n">
+        <v>14.02419589415351</v>
+      </c>
+      <c r="I831" t="n">
+        <v>6.84705617785838</v>
+      </c>
+      <c r="J831" t="n">
+        <v>115.1627547945288</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E832" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F832" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G832" t="n">
+        <v>28.43605994799691</v>
+      </c>
+      <c r="H832" t="n">
+        <v>14.09904174109788</v>
+      </c>
+      <c r="I832" t="n">
+        <v>6.824543072922839</v>
+      </c>
+      <c r="J832" t="n">
+        <v>116.7485723836545</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E833" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F833" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G833" t="n">
+        <v>28.88244019939428</v>
+      </c>
+      <c r="H833" t="n">
+        <v>14.09248598710336</v>
+      </c>
+      <c r="I833" t="n">
+        <v>6.735381876303777</v>
+      </c>
+      <c r="J833" t="n">
+        <v>115.5329084770679</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E834" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F834" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G834" t="n">
+        <v>29.19279500594604</v>
+      </c>
+      <c r="H834" t="n">
+        <v>13.90988767722452</v>
+      </c>
+      <c r="I834" t="n">
+        <v>6.530348279204325</v>
+      </c>
+      <c r="J834" t="n">
+        <v>111.8497821583512</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E835" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F835" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G835" t="n">
+        <v>29.55908484931672</v>
+      </c>
+      <c r="H835" t="n">
+        <v>13.46020601266319</v>
+      </c>
+      <c r="I835" t="n">
+        <v>6.273334844968502</v>
+      </c>
+      <c r="J835" t="n">
+        <v>106.6831441180445</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E836" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F836" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G836" t="n">
+        <v>29.83333506692174</v>
+      </c>
+      <c r="H836" t="n">
+        <v>12.97303249118298</v>
+      </c>
+      <c r="I836" t="n">
+        <v>5.794006323064455</v>
+      </c>
+      <c r="J836" t="n">
+        <v>97.75137245803246</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E837" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F837" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G837" t="n">
+        <v>30.12162545595825</v>
+      </c>
+      <c r="H837" t="n">
+        <v>12.60800688337086</v>
+      </c>
+      <c r="I837" t="n">
+        <v>5.420531500548644</v>
+      </c>
+      <c r="J837" t="n">
+        <v>90.86758980322037</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E838" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F838" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G838" t="n">
+        <v>30.20932615956727</v>
+      </c>
+      <c r="H838" t="n">
+        <v>12.33798884458064</v>
+      </c>
+      <c r="I838" t="n">
+        <v>5.253295993363354</v>
+      </c>
+      <c r="J838" t="n">
+        <v>87.6405498755629</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E839" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F839" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G839" t="n">
+        <v>30.32321061842517</v>
+      </c>
+      <c r="H839" t="n">
+        <v>12.25237357763782</v>
+      </c>
+      <c r="I839" t="n">
+        <v>5.208065286299223</v>
+      </c>
+      <c r="J839" t="n">
+        <v>86.79247411811043</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E840" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F840" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G840" t="n">
+        <v>30.43506531312396</v>
+      </c>
+      <c r="H840" t="n">
+        <v>12.18043103145112</v>
+      </c>
+      <c r="I840" t="n">
+        <v>5.167870078396591</v>
+      </c>
+      <c r="J840" t="n">
+        <v>86.02106579764856</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E841" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F841" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G841" t="n">
+        <v>30.51494982613679</v>
+      </c>
+      <c r="H841" t="n">
+        <v>12.16009648759372</v>
+      </c>
+      <c r="I841" t="n">
+        <v>5.095248939249703</v>
+      </c>
+      <c r="J841" t="n">
+        <v>84.80064840795102</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E842" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F842" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G842" t="n">
+        <v>30.5507564117999</v>
+      </c>
+      <c r="H842" t="n">
+        <v>12.20822993061626</v>
+      </c>
+      <c r="I842" t="n">
+        <v>4.976089318108535</v>
+      </c>
+      <c r="J842" t="n">
+        <v>82.9340100078086</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E843" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F843" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G843" t="n">
+        <v>30.76953621825187</v>
+      </c>
+      <c r="H843" t="n">
+        <v>12.22860272986549</v>
+      </c>
+      <c r="I843" t="n">
+        <v>4.811045857667692</v>
+      </c>
+      <c r="J843" t="n">
+        <v>80.36966056636045</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E844" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F844" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G844" t="n">
+        <v>30.9780074463551</v>
+      </c>
+      <c r="H844" t="n">
+        <v>12.15193082379961</v>
+      </c>
+      <c r="I844" t="n">
+        <v>4.682810007784325</v>
+      </c>
+      <c r="J844" t="n">
+        <v>78.22565732078458</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E845" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F845" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G845" t="n">
+        <v>31.05694459545047</v>
+      </c>
+      <c r="H845" t="n">
+        <v>11.9774801970485</v>
+      </c>
+      <c r="I845" t="n">
+        <v>4.638598941899711</v>
+      </c>
+      <c r="J845" t="n">
+        <v>77.2134036304932</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E846" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F846" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G846" t="n">
+        <v>31.08147185896359</v>
+      </c>
+      <c r="H846" t="n">
+        <v>11.89931417013555</v>
+      </c>
+      <c r="I846" t="n">
+        <v>4.633155841334037</v>
+      </c>
+      <c r="J846" t="n">
+        <v>77.01816941376553</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E847" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F847" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G847" t="n">
+        <v>31.12101074510032</v>
+      </c>
+      <c r="H847" t="n">
+        <v>11.77151884172934</v>
+      </c>
+      <c r="I847" t="n">
+        <v>4.677637088237854</v>
+      </c>
+      <c r="J847" t="n">
+        <v>77.58301064429021</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E848" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F848" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G848" t="n">
+        <v>31.20677338567912</v>
+      </c>
+      <c r="H848" t="n">
+        <v>11.68178929538264</v>
+      </c>
+      <c r="I848" t="n">
+        <v>4.683457328753077</v>
+      </c>
+      <c r="J848" t="n">
+        <v>77.53437318938242</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E849" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F849" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G849" t="n">
+        <v>31.30391349931299</v>
+      </c>
+      <c r="H849" t="n">
+        <v>11.59536071732995</v>
+      </c>
+      <c r="I849" t="n">
+        <v>4.691162635489258</v>
+      </c>
+      <c r="J849" t="n">
+        <v>77.52202430537842</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E850" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F850" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G850" t="n">
+        <v>31.36988465966915</v>
+      </c>
+      <c r="H850" t="n">
+        <v>11.46869679211423</v>
+      </c>
+      <c r="I850" t="n">
+        <v>4.73602021385905</v>
+      </c>
+      <c r="J850" t="n">
+        <v>78.12</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E851" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F851" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G851" t="n">
+        <v>31.43508932556492</v>
+      </c>
+      <c r="H851" t="n">
+        <v>11.37806431445687</v>
+      </c>
+      <c r="I851" t="n">
+        <v>4.662997320283183</v>
+      </c>
+      <c r="J851" t="n">
+        <v>76.79204109066221</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E852" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F852" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G852" t="n">
+        <v>31.44418320651893</v>
+      </c>
+      <c r="H852" t="n">
+        <v>11.28474507865918</v>
+      </c>
+      <c r="I852" t="n">
+        <v>4.563999999999999</v>
+      </c>
+      <c r="J852" t="n">
+        <v>75.04730213099579</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E853" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F853" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G853" t="n">
+        <v>31.49732353017017</v>
+      </c>
+      <c r="H853" t="n">
+        <v>11.22980285349191</v>
+      </c>
+      <c r="I853" t="n">
+        <v>4.628020239393057</v>
+      </c>
+      <c r="J853" t="n">
+        <v>75.99772569432008</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E854" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F854" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G854" t="n">
+        <v>31.65546231073889</v>
+      </c>
+      <c r="H854" t="n">
+        <v>11.13207151243467</v>
+      </c>
+      <c r="I854" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="J854" t="n">
+        <v>77.54039814590759</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E855" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F855" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G855" t="n">
+        <v>31.7742495260619</v>
+      </c>
+      <c r="H855" t="n">
+        <v>10.97916974491807</v>
+      </c>
+      <c r="I855" t="n">
+        <v>4.728517124337581</v>
+      </c>
+      <c r="J855" t="n">
+        <v>77.36970643992717</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E856" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F856" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G856" t="n">
+        <v>31.88903850765006</v>
+      </c>
+      <c r="H856" t="n">
+        <v>10.83332411917278</v>
+      </c>
+      <c r="I856" t="n">
+        <v>4.676499960036615</v>
+      </c>
+      <c r="J856" t="n">
+        <v>76.29758168858004</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E857" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F857" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G857" t="n">
+        <v>31.94632418633755</v>
+      </c>
+      <c r="H857" t="n">
+        <v>10.73828592437976</v>
+      </c>
+      <c r="I857" t="n">
+        <v>4.643484115312235</v>
+      </c>
+      <c r="J857" t="n">
+        <v>75.63580505535866</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E858" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F858" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G858" t="n">
+        <v>31.97397091026054</v>
+      </c>
+      <c r="H858" t="n">
+        <v>10.66255794146024</v>
+      </c>
+      <c r="I858" t="n">
+        <v>4.64769122547443</v>
+      </c>
+      <c r="J858" t="n">
+        <v>75.6117644258604</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E859" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F859" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G859" t="n">
+        <v>32.09739217002079</v>
+      </c>
+      <c r="H859" t="n">
+        <v>10.54567449773703</v>
+      </c>
+      <c r="I859" t="n">
+        <v>4.677015689419603</v>
+      </c>
+      <c r="J859" t="n">
+        <v>75.94752944835049</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E860" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H860" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I860" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J860" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F861" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G861" t="n">
+        <v>13.69452152132459</v>
+      </c>
+      <c r="H861" t="n">
+        <v>9.229432093488526</v>
+      </c>
+      <c r="I861" t="n">
+        <v>7.852070831587978</v>
+      </c>
+      <c r="J861" t="n">
+        <v>110.0807856245246</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F862" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G862" t="n">
+        <v>13.9760281320805</v>
+      </c>
+      <c r="H862" t="n">
+        <v>9.328066158120151</v>
+      </c>
+      <c r="I862" t="n">
+        <v>7.683868458658159</v>
+      </c>
+      <c r="J862" t="n">
+        <v>108.1435790912797</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E863" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F863" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G863" t="n">
+        <v>22.37121031471639</v>
+      </c>
+      <c r="H863" t="n">
+        <v>9.972561033628281</v>
+      </c>
+      <c r="I863" t="n">
+        <v>6.700904205854394</v>
+      </c>
+      <c r="J863" t="n">
+        <v>101.0304761595646</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E864" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F864" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G864" t="n">
+        <v>23.86138928715684</v>
+      </c>
+      <c r="H864" t="n">
+        <v>10.06510971396843</v>
+      </c>
+      <c r="I864" t="n">
+        <v>6.498294779886884</v>
+      </c>
+      <c r="J864" t="n">
+        <v>99.14294779886883</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E865" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F865" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G865" t="n">
+        <v>24.28324055351683</v>
+      </c>
+      <c r="H865" t="n">
+        <v>10.15643134921966</v>
+      </c>
+      <c r="I865" t="n">
+        <v>6.422652458198879</v>
+      </c>
+      <c r="J865" t="n">
+        <v>98.45919504133711</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E866" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F866" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G866" t="n">
+        <v>24.75085284836182</v>
+      </c>
+      <c r="H866" t="n">
+        <v>10.27063167782752</v>
+      </c>
+      <c r="I866" t="n">
+        <v>6.344326137051764</v>
+      </c>
+      <c r="J866" t="n">
+        <v>97.78803502431067</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E867" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F867" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G867" t="n">
+        <v>25.15731130840719</v>
+      </c>
+      <c r="H867" t="n">
+        <v>10.36102197642297</v>
+      </c>
+      <c r="I867" t="n">
+        <v>6.257846165039192</v>
+      </c>
+      <c r="J867" t="n">
+        <v>96.89520157180183</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E868" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F868" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G868" t="n">
+        <v>25.39216022667241</v>
+      </c>
+      <c r="H868" t="n">
+        <v>10.54181103571098</v>
+      </c>
+      <c r="I868" t="n">
+        <v>6.189138915817506</v>
+      </c>
+      <c r="J868" t="n">
+        <v>96.34329781524184</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E869" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F869" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G869" t="n">
+        <v>25.59192374077454</v>
+      </c>
+      <c r="H869" t="n">
+        <v>10.63073422598919</v>
+      </c>
+      <c r="I869" t="n">
+        <v>6.147949387172019</v>
+      </c>
+      <c r="J869" t="n">
+        <v>95.99341806580605</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E870" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F870" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G870" t="n">
+        <v>25.80269574375983</v>
+      </c>
+      <c r="H870" t="n">
+        <v>10.62668445357485</v>
+      </c>
+      <c r="I870" t="n">
+        <v>6.107670599808519</v>
+      </c>
+      <c r="J870" t="n">
+        <v>95.47403796185803</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E871" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F871" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G871" t="n">
+        <v>25.97717328469654</v>
+      </c>
+      <c r="H871" t="n">
+        <v>10.65205525380974</v>
+      </c>
+      <c r="I871" t="n">
+        <v>6.070512580370204</v>
+      </c>
+      <c r="J871" t="n">
+        <v>95.07600518187682</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E872" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F872" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G872" t="n">
+        <v>26.0835664908725</v>
+      </c>
+      <c r="H872" t="n">
+        <v>10.76613133847904</v>
+      </c>
+      <c r="I872" t="n">
+        <v>6.025715183477727</v>
+      </c>
+      <c r="J872" t="n">
+        <v>94.68011069782095</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E873" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F873" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G873" t="n">
+        <v>26.20478705849959</v>
+      </c>
+      <c r="H873" t="n">
+        <v>10.81886917586589</v>
+      </c>
+      <c r="I873" t="n">
+        <v>5.988098118100582</v>
+      </c>
+      <c r="J873" t="n">
+        <v>94.29393176967304</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E874" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F874" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G874" t="n">
+        <v>26.60509175030472</v>
+      </c>
+      <c r="H874" t="n">
+        <v>10.99512411535685</v>
+      </c>
+      <c r="I874" t="n">
+        <v>5.903492799545579</v>
+      </c>
+      <c r="J874" t="n">
+        <v>93.52550353857262</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E875" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F875" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G875" t="n">
+        <v>26.84731553272423</v>
+      </c>
+      <c r="H875" t="n">
+        <v>11.13635607661941</v>
+      </c>
+      <c r="I875" t="n">
+        <v>5.849289866508639</v>
+      </c>
+      <c r="J875" t="n">
+        <v>93.1160337948541</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E876" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F876" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G876" t="n">
+        <v>27.47220720772462</v>
+      </c>
+      <c r="H876" t="n">
+        <v>11.37105309866677</v>
+      </c>
+      <c r="I876" t="n">
+        <v>5.736398000183825</v>
+      </c>
+      <c r="J876" t="n">
+        <v>92.14085824367729</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E877" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F877" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G877" t="n">
+        <v>27.78201644336898</v>
+      </c>
+      <c r="H877" t="n">
+        <v>11.44359767955769</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5.661866053177286</v>
+      </c>
+      <c r="J877" t="n">
+        <v>91.26804640884617</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E878" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F878" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G878" t="n">
+        <v>28.12610083996611</v>
+      </c>
+      <c r="H878" t="n">
+        <v>11.59879637427827</v>
+      </c>
+      <c r="I878" t="n">
+        <v>5.577353311200937</v>
+      </c>
+      <c r="J878" t="n">
+        <v>90.4092388357804</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E879" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F879" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G879" t="n">
+        <v>28.72461918596952</v>
+      </c>
+      <c r="H879" t="n">
+        <v>11.82340515966238</v>
+      </c>
+      <c r="I879" t="n">
+        <v>5.443499636829999</v>
+      </c>
+      <c r="J879" t="n">
+        <v>88.9915425173738</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E880" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F880" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G880" t="n">
+        <v>28.95804750453194</v>
+      </c>
+      <c r="H880" t="n">
+        <v>11.98159739378143</v>
+      </c>
+      <c r="I880" t="n">
+        <v>5.346983476684541</v>
+      </c>
+      <c r="J880" t="n">
+        <v>87.86263584845368</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E881" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F881" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G881" t="n">
+        <v>29.24103517837219</v>
+      </c>
+      <c r="H881" t="n">
+        <v>12.18858820819199</v>
+      </c>
+      <c r="I881" t="n">
+        <v>5.191424238558374</v>
+      </c>
+      <c r="J881" t="n">
+        <v>85.76964821627807</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E882" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F882" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G882" t="n">
+        <v>29.542744560361</v>
+      </c>
+      <c r="H882" t="n">
+        <v>12.38609419918328</v>
+      </c>
+      <c r="I882" t="n">
+        <v>5.032543480490031</v>
+      </c>
+      <c r="J882" t="n">
+        <v>83.68101452035276</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E883" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F883" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G883" t="n">
+        <v>29.86930643912759</v>
+      </c>
+      <c r="H883" t="n">
+        <v>12.60878305632012</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4.788912316536128</v>
+      </c>
+      <c r="J883" t="n">
+        <v>80.16955458183399</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E884" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F884" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G884" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H884" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I884" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J884" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E885" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F885" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G885" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H885" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I885" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J885" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E886" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F886" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H886" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I886" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J886" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E887" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F887" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H887" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I887" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J887" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E888" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F888" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H888" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I888" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J888" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E889" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F889" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H889" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I889" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J889" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E890" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F890" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G890" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H890" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I890" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J890" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E891" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F891" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H891" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I891" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J891" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E892" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F892" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H892" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I892" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J892" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E893" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F893" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H893" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I893" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J893" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E894" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F894" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H894" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I894" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J894" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E895" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F895" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H895" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I895" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J895" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E896" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F896" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H896" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I896" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J896" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E897" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F897" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H897" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I897" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J897" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Soerfjorden</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>44141</v>
+      </c>
+      <c r="E898" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F898" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-999</v>
+      </c>
+      <c r="H898" t="n">
+        <v>-999</v>
+      </c>
+      <c r="I898" t="n">
+        <v>-999</v>
+      </c>
+      <c r="J898" t="n">
+        <v>-999</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>NIVA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>